--- a/artfynd/A 56271-2021.xlsx
+++ b/artfynd/A 56271-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13012060</v>
+        <v>13769457</v>
       </c>
       <c r="B2" t="n">
         <v>42759</v>
@@ -713,21 +713,7 @@
           <t>(Scopoli, 1763)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ståltorpet, Ög</t>
@@ -740,7 +726,7 @@
         <v>6464359.465577967</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -764,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1999-07-01</t>
+          <t>1999-01-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1999-07-01</t>
+          <t>1999-01-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -784,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Datum osäkert</t>
+          <t>LST:s källa &amp; kommentar: k16e _NO Ståltorpet</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +782,11 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Kjell Antonsson</t>
+          <t>Tommy Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
